--- a/Offer.xlsx
+++ b/Offer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\Programming\React-Projects\configurator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092004F-92B3-4214-A6B1-C8CACE9DA0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D19D7D-5720-4C65-8B17-39002A8256C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EE1C98E-CE4C-4B52-8B05-8F072AB6EE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Cost</t>
   </si>
@@ -59,18 +59,6 @@
     <t>Working hours per day</t>
   </si>
   <si>
-    <t>Sign Up</t>
-  </si>
-  <si>
-    <t>Log In</t>
-  </si>
-  <si>
-    <t>Password Change/Reset</t>
-  </si>
-  <si>
-    <t>Forgot Password</t>
-  </si>
-  <si>
     <t>User Management</t>
   </si>
   <si>
@@ -80,9 +68,6 @@
     <t>Machines Management</t>
   </si>
   <si>
-    <t>Show machines in different power classes. Select machine for calculation</t>
-  </si>
-  <si>
     <t>Load points modal</t>
   </si>
   <si>
@@ -120,6 +105,30 @@
   </si>
   <si>
     <t>Client should provide the server solution</t>
+  </si>
+  <si>
+    <t>Show machines in different power classes. Select machine for calculation. Make card for motor similat to faulhaber calculator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pictures and other data of the machine have to be provided. The Bühler motor catalog is an example for the visual representation and data that is needed. </t>
+  </si>
+  <si>
+    <t>Generate all graphs in python and send to frontend. This will replace the usage of chartjs and will enable simpler mainanance. The same is observed on the faulhaber calculator. The results are static and onClick events will not be possible</t>
+  </si>
+  <si>
+    <t>Enter the load points data (speed, torque and temperature in SI units). Also add a settings modal for the graph generation (min, max torque, min. and max speed…)</t>
+  </si>
+  <si>
+    <t>Scrap the PDF data of the machines</t>
+  </si>
+  <si>
+    <t>Password Change/Reset/Forgot</t>
+  </si>
+  <si>
+    <t>Sign Up / Sign In</t>
+  </si>
+  <si>
+    <t>Using the available PDFs of the machines catalogue write a backend endpoint that scraps the importand data and saves the input in the database</t>
   </si>
 </sst>
 </file>
@@ -176,9 +185,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -197,6 +203,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -511,15 +520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620AF749-E617-462A-874D-63789FD2C62E}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" customWidth="1"/>
@@ -529,243 +538,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
-        <f t="shared" ref="C2:C14" si="0">B2*$F$2*$G$2</f>
-        <v>400</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C13" si="0">B2*$F$2*$G$2</f>
+        <v>480</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <f>SUM(B2:B16)</f>
         <v>20</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="C17" s="8">
+        <f>SUM(C2:C16)</f>
+        <v>4800</v>
+      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
-        <f>SUM(B2:B17)</f>
-        <v>24</v>
-      </c>
-      <c r="C18" s="9">
-        <f>SUM(C2:C17)</f>
-        <v>4800</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -796,9 +804,6 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Offer.xlsx
+++ b/Offer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\Programming\React-Projects\configurator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D19D7D-5720-4C65-8B17-39002A8256C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D48C9F8-2E98-4BA3-B648-2CFB21E5889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EE1C98E-CE4C-4B52-8B05-8F072AB6EE4E}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{1EE1C98E-CE4C-4B52-8B05-8F072AB6EE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,11 +610,11 @@
         <v>27</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -625,11 +625,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -715,11 +715,11 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D12" s="5"/>
     </row>
